--- a/chemicalDB/data/chemicals-MS-Group.xlsx
+++ b/chemicalDB/data/chemicals-MS-Group.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="512">
   <si>
     <t xml:space="preserve">Chemical.name</t>
   </si>
@@ -1275,9 +1275,6 @@
   </si>
   <si>
     <t xml:space="preserve">P3767-50UN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-09-19</t>
   </si>
   <si>
     <t xml:space="preserve">Potassium chloride</t>
@@ -7544,23 +7541,21 @@
       <c r="N113" t="s">
         <v>26</v>
       </c>
-      <c r="O113" t="s">
-        <v>421</v>
-      </c>
+      <c r="O113"/>
       <c r="P113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>421</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
         <v>422</v>
-      </c>
-      <c r="B114" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" t="s">
-        <v>423</v>
       </c>
       <c r="E114" t="s">
         <v>20</v>
@@ -7575,10 +7570,10 @@
         <v>32</v>
       </c>
       <c r="I114" t="s">
+        <v>423</v>
+      </c>
+      <c r="J114" t="s">
         <v>424</v>
-      </c>
-      <c r="J114" t="s">
-        <v>425</v>
       </c>
       <c r="K114" t="s">
         <v>26</v>
@@ -7601,7 +7596,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B115" t="s">
         <v>17</v>
@@ -7619,16 +7614,16 @@
         <v>120</v>
       </c>
       <c r="G115" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H115" t="s">
         <v>150</v>
       </c>
       <c r="I115" t="s">
+        <v>427</v>
+      </c>
+      <c r="J115" t="s">
         <v>428</v>
-      </c>
-      <c r="J115" t="s">
-        <v>429</v>
       </c>
       <c r="K115" t="s">
         <v>26</v>
@@ -7651,7 +7646,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B116" t="s">
         <v>17</v>
@@ -7669,16 +7664,16 @@
         <v>115</v>
       </c>
       <c r="G116" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H116" t="s">
         <v>150</v>
       </c>
       <c r="I116" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J116" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K116" t="s">
         <v>26</v>
@@ -7701,7 +7696,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B117" t="s">
         <v>17</v>
@@ -7725,10 +7720,10 @@
         <v>51</v>
       </c>
       <c r="I117" t="s">
+        <v>431</v>
+      </c>
+      <c r="J117" t="s">
         <v>432</v>
-      </c>
-      <c r="J117" t="s">
-        <v>433</v>
       </c>
       <c r="K117" t="s">
         <v>26</v>
@@ -7740,7 +7735,7 @@
         <v>35</v>
       </c>
       <c r="N117" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O117" t="s">
         <v>26</v>
@@ -7751,7 +7746,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B118" t="s">
         <v>17</v>
@@ -7775,10 +7770,10 @@
         <v>51</v>
       </c>
       <c r="I118" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J118" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K118" t="s">
         <v>26</v>
@@ -7790,7 +7785,7 @@
         <v>35</v>
       </c>
       <c r="N118" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O118" t="s">
         <v>26</v>
@@ -7801,7 +7796,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B119" t="s">
         <v>17</v>
@@ -7825,10 +7820,10 @@
         <v>51</v>
       </c>
       <c r="I119" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J119" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K119" t="s">
         <v>26</v>
@@ -7840,7 +7835,7 @@
         <v>83</v>
       </c>
       <c r="N119" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O119" t="s">
         <v>26</v>
@@ -7851,16 +7846,16 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>435</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" t="s">
         <v>436</v>
-      </c>
-      <c r="B120" t="s">
-        <v>17</v>
-      </c>
-      <c r="C120" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" t="s">
-        <v>437</v>
       </c>
       <c r="E120" t="s">
         <v>54</v>
@@ -7875,10 +7870,10 @@
         <v>32</v>
       </c>
       <c r="I120" t="s">
+        <v>437</v>
+      </c>
+      <c r="J120" t="s">
         <v>438</v>
-      </c>
-      <c r="J120" t="s">
-        <v>439</v>
       </c>
       <c r="K120" t="s">
         <v>26</v>
@@ -7901,16 +7896,16 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>439</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
         <v>440</v>
-      </c>
-      <c r="B121" t="s">
-        <v>17</v>
-      </c>
-      <c r="C121" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" t="s">
-        <v>441</v>
       </c>
       <c r="E121" t="s">
         <v>20</v>
@@ -7925,10 +7920,10 @@
         <v>32</v>
       </c>
       <c r="I121" t="s">
+        <v>441</v>
+      </c>
+      <c r="J121" t="s">
         <v>442</v>
-      </c>
-      <c r="J121" t="s">
-        <v>443</v>
       </c>
       <c r="K121" t="s">
         <v>26</v>
@@ -7951,16 +7946,16 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>443</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
         <v>444</v>
-      </c>
-      <c r="B122" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" t="s">
-        <v>445</v>
       </c>
       <c r="E122" t="s">
         <v>20</v>
@@ -7975,10 +7970,10 @@
         <v>65</v>
       </c>
       <c r="I122" t="s">
+        <v>445</v>
+      </c>
+      <c r="J122" t="s">
         <v>446</v>
-      </c>
-      <c r="J122" t="s">
-        <v>447</v>
       </c>
       <c r="K122" t="s">
         <v>26</v>
@@ -8001,16 +7996,16 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>447</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
         <v>448</v>
-      </c>
-      <c r="B123" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" t="s">
-        <v>449</v>
       </c>
       <c r="E123" t="s">
         <v>20</v>
@@ -8025,10 +8020,10 @@
         <v>32</v>
       </c>
       <c r="I123" t="s">
+        <v>449</v>
+      </c>
+      <c r="J123" t="s">
         <v>450</v>
-      </c>
-      <c r="J123" t="s">
-        <v>451</v>
       </c>
       <c r="K123" t="s">
         <v>26</v>
@@ -8051,7 +8046,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B124" t="s">
         <v>17</v>
@@ -8060,7 +8055,7 @@
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E124" t="s">
         <v>20</v>
@@ -8075,10 +8070,10 @@
         <v>32</v>
       </c>
       <c r="I124" t="s">
+        <v>452</v>
+      </c>
+      <c r="J124" t="s">
         <v>453</v>
-      </c>
-      <c r="J124" t="s">
-        <v>454</v>
       </c>
       <c r="K124" t="s">
         <v>26</v>
@@ -8101,16 +8096,16 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>454</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
         <v>455</v>
-      </c>
-      <c r="B125" t="s">
-        <v>17</v>
-      </c>
-      <c r="C125" t="s">
-        <v>18</v>
-      </c>
-      <c r="D125" t="s">
-        <v>456</v>
       </c>
       <c r="E125" t="s">
         <v>20</v>
@@ -8125,10 +8120,10 @@
         <v>32</v>
       </c>
       <c r="I125" t="s">
+        <v>456</v>
+      </c>
+      <c r="J125" t="s">
         <v>457</v>
-      </c>
-      <c r="J125" t="s">
-        <v>458</v>
       </c>
       <c r="K125" t="s">
         <v>26</v>
@@ -8151,16 +8146,16 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>458</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" t="s">
         <v>459</v>
-      </c>
-      <c r="B126" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" t="s">
-        <v>18</v>
-      </c>
-      <c r="D126" t="s">
-        <v>460</v>
       </c>
       <c r="E126" t="s">
         <v>20</v>
@@ -8175,13 +8170,13 @@
         <v>70</v>
       </c>
       <c r="I126" t="s">
+        <v>460</v>
+      </c>
+      <c r="J126" t="s">
         <v>461</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>462</v>
-      </c>
-      <c r="K126" t="s">
-        <v>463</v>
       </c>
       <c r="L126" t="s">
         <v>42</v>
@@ -8201,16 +8196,16 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>458</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s">
         <v>459</v>
-      </c>
-      <c r="B127" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" t="s">
-        <v>460</v>
       </c>
       <c r="E127" t="s">
         <v>20</v>
@@ -8225,10 +8220,10 @@
         <v>32</v>
       </c>
       <c r="I127" t="s">
+        <v>463</v>
+      </c>
+      <c r="J127" t="s">
         <v>464</v>
-      </c>
-      <c r="J127" t="s">
-        <v>465</v>
       </c>
       <c r="K127" t="s">
         <v>26</v>
@@ -8251,7 +8246,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B128" t="s">
         <v>159</v>
@@ -8272,16 +8267,16 @@
         <v>361</v>
       </c>
       <c r="H128" t="s">
+        <v>466</v>
+      </c>
+      <c r="I128" t="s">
         <v>467</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>468</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>469</v>
-      </c>
-      <c r="K128" t="s">
-        <v>470</v>
       </c>
       <c r="L128" t="s">
         <v>99</v>
@@ -8301,7 +8296,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B129" t="s">
         <v>159</v>
@@ -8322,16 +8317,16 @@
         <v>361</v>
       </c>
       <c r="H129" t="s">
+        <v>466</v>
+      </c>
+      <c r="I129" t="s">
         <v>467</v>
       </c>
-      <c r="I129" t="s">
-        <v>468</v>
-      </c>
       <c r="J129" t="s">
+        <v>470</v>
+      </c>
+      <c r="K129" t="s">
         <v>471</v>
-      </c>
-      <c r="K129" t="s">
-        <v>472</v>
       </c>
       <c r="L129" t="s">
         <v>99</v>
@@ -8351,16 +8346,16 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>472</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
         <v>473</v>
-      </c>
-      <c r="B130" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" t="s">
-        <v>474</v>
       </c>
       <c r="E130" t="s">
         <v>20</v>
@@ -8375,10 +8370,10 @@
         <v>65</v>
       </c>
       <c r="I130" t="s">
+        <v>474</v>
+      </c>
+      <c r="J130" t="s">
         <v>475</v>
-      </c>
-      <c r="J130" t="s">
-        <v>476</v>
       </c>
       <c r="K130" t="s">
         <v>26</v>
@@ -8401,16 +8396,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>476</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
         <v>477</v>
-      </c>
-      <c r="B131" t="s">
-        <v>17</v>
-      </c>
-      <c r="C131" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" t="s">
-        <v>478</v>
       </c>
       <c r="E131" t="s">
         <v>20</v>
@@ -8425,10 +8420,10 @@
         <v>32</v>
       </c>
       <c r="I131" t="s">
+        <v>478</v>
+      </c>
+      <c r="J131" t="s">
         <v>479</v>
-      </c>
-      <c r="J131" t="s">
-        <v>480</v>
       </c>
       <c r="K131" t="s">
         <v>26</v>
@@ -8451,16 +8446,16 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>480</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
         <v>481</v>
-      </c>
-      <c r="B132" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" t="s">
-        <v>482</v>
       </c>
       <c r="E132" t="s">
         <v>90</v>
@@ -8475,10 +8470,10 @@
         <v>23</v>
       </c>
       <c r="I132" t="s">
+        <v>482</v>
+      </c>
+      <c r="J132" t="s">
         <v>483</v>
-      </c>
-      <c r="J132" t="s">
-        <v>484</v>
       </c>
       <c r="K132" t="s">
         <v>26</v>
@@ -8501,7 +8496,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -8510,7 +8505,7 @@
         <v>18</v>
       </c>
       <c r="D133" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E133" t="s">
         <v>20</v>
@@ -8525,10 +8520,10 @@
         <v>51</v>
       </c>
       <c r="I133" t="s">
+        <v>485</v>
+      </c>
+      <c r="J133" t="s">
         <v>486</v>
-      </c>
-      <c r="J133" t="s">
-        <v>487</v>
       </c>
       <c r="K133" t="s">
         <v>26</v>
@@ -8551,7 +8546,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B134" t="s">
         <v>17</v>
@@ -8560,7 +8555,7 @@
         <v>18</v>
       </c>
       <c r="D134" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E134" t="s">
         <v>20</v>
@@ -8575,10 +8570,10 @@
         <v>23</v>
       </c>
       <c r="I134" t="s">
+        <v>488</v>
+      </c>
+      <c r="J134" t="s">
         <v>489</v>
-      </c>
-      <c r="J134" t="s">
-        <v>490</v>
       </c>
       <c r="K134" t="s">
         <v>26</v>
@@ -8601,7 +8596,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B135" t="s">
         <v>17</v>
@@ -8625,10 +8620,10 @@
         <v>150</v>
       </c>
       <c r="I135" t="s">
+        <v>491</v>
+      </c>
+      <c r="J135" t="s">
         <v>492</v>
-      </c>
-      <c r="J135" t="s">
-        <v>493</v>
       </c>
       <c r="K135" t="s">
         <v>26</v>
@@ -8651,7 +8646,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B136" t="s">
         <v>17</v>
@@ -8675,10 +8670,10 @@
         <v>150</v>
       </c>
       <c r="I136" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J136" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K136" t="s">
         <v>26</v>
@@ -8701,16 +8696,16 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>494</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" t="s">
         <v>495</v>
-      </c>
-      <c r="B137" t="s">
-        <v>17</v>
-      </c>
-      <c r="C137" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" t="s">
-        <v>496</v>
       </c>
       <c r="E137" t="s">
         <v>20</v>
@@ -8722,13 +8717,13 @@
         <v>22</v>
       </c>
       <c r="H137" t="s">
+        <v>496</v>
+      </c>
+      <c r="I137" t="s">
         <v>497</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>498</v>
-      </c>
-      <c r="J137" t="s">
-        <v>499</v>
       </c>
       <c r="K137" t="s">
         <v>26</v>
@@ -8751,16 +8746,16 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>494</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
         <v>495</v>
-      </c>
-      <c r="B138" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" t="s">
-        <v>496</v>
       </c>
       <c r="E138" t="s">
         <v>20</v>
@@ -8772,13 +8767,13 @@
         <v>22</v>
       </c>
       <c r="H138" t="s">
+        <v>496</v>
+      </c>
+      <c r="I138" t="s">
         <v>497</v>
       </c>
-      <c r="I138" t="s">
-        <v>498</v>
-      </c>
       <c r="J138" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K138" t="s">
         <v>26</v>
@@ -8801,19 +8796,19 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>500</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
         <v>501</v>
       </c>
-      <c r="B139" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>502</v>
-      </c>
-      <c r="E139" t="s">
-        <v>503</v>
       </c>
       <c r="F139" t="s">
         <v>349</v>
@@ -8825,7 +8820,7 @@
         <v>141</v>
       </c>
       <c r="I139" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J139" t="s">
         <v>143</v>
@@ -8851,7 +8846,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B140" t="s">
         <v>159</v>
@@ -8875,7 +8870,7 @@
         <v>23</v>
       </c>
       <c r="I140" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J140" t="s">
         <v>143</v>
@@ -8901,16 +8896,16 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>506</v>
+      </c>
+      <c r="B141" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" t="s">
         <v>507</v>
-      </c>
-      <c r="B141" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" t="s">
-        <v>18</v>
-      </c>
-      <c r="D141" t="s">
-        <v>508</v>
       </c>
       <c r="E141" t="s">
         <v>20</v>
@@ -8925,10 +8920,10 @@
         <v>32</v>
       </c>
       <c r="I141" t="s">
+        <v>508</v>
+      </c>
+      <c r="J141" t="s">
         <v>509</v>
-      </c>
-      <c r="J141" t="s">
-        <v>510</v>
       </c>
       <c r="K141" t="s">
         <v>26</v>
@@ -8951,7 +8946,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
@@ -8975,7 +8970,7 @@
         <v>231</v>
       </c>
       <c r="I142" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J142" t="s">
         <v>143</v>
